--- a/output/VINCI_13396703000122.xlsx
+++ b/output/VINCI_13396703000122.xlsx
@@ -1494,10 +1494,10 @@
         <v>44165</v>
       </c>
       <c r="B101">
-        <v>1.259069197</v>
+        <v>1.261149738</v>
       </c>
       <c r="C101">
-        <v>0.001453514048907811</v>
+        <v>0.002375825370021678</v>
       </c>
     </row>
   </sheetData>

--- a/output/VINCI_13396703000122.xlsx
+++ b/output/VINCI_13396703000122.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VINCI VALOREM FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1118 +383,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41152</v>
       </c>
       <c r="B2">
-        <v>0.001429624999999879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41182</v>
       </c>
       <c r="B3">
-        <v>0.01658664599999993</v>
-      </c>
-      <c r="C3">
         <v>0.01513538307796725</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41213</v>
       </c>
       <c r="B4">
-        <v>0.03659992900000009</v>
-      </c>
-      <c r="C4">
         <v>0.01968674591462238</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41243</v>
       </c>
       <c r="B5">
-        <v>0.04759063299999999</v>
-      </c>
-      <c r="C5">
         <v>0.01060264784177889</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41274</v>
       </c>
       <c r="B6">
-        <v>0.06306607099999995</v>
-      </c>
-      <c r="C6">
         <v>0.01477240967273907</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41305</v>
       </c>
       <c r="B7">
-        <v>0.06469028600000004</v>
-      </c>
-      <c r="C7">
         <v>0.00152785893963503</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41333</v>
       </c>
       <c r="B8">
-        <v>0.05850865199999999</v>
-      </c>
-      <c r="C8">
         <v>-0.005806039635455118</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41364</v>
       </c>
       <c r="B9">
-        <v>0.066034009</v>
-      </c>
-      <c r="C9">
         <v>0.007109395833261534</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41394</v>
       </c>
       <c r="B10">
-        <v>0.07578454899999998</v>
-      </c>
-      <c r="C10">
         <v>0.009146556223986302</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41425</v>
       </c>
       <c r="B11">
-        <v>0.06353402500000005</v>
-      </c>
-      <c r="C11">
         <v>-0.0113875255146465</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41455</v>
       </c>
       <c r="B12">
-        <v>0.065728711</v>
-      </c>
-      <c r="C12">
         <v>0.002063578548885614</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41486</v>
       </c>
       <c r="B13">
-        <v>0.07785961799999996</v>
-      </c>
-      <c r="C13">
         <v>0.01138273453158378</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41517</v>
       </c>
       <c r="B14">
-        <v>0.08158289299999999</v>
-      </c>
-      <c r="C14">
         <v>0.003454322750219285</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41547</v>
       </c>
       <c r="B15">
-        <v>0.08933888899999998</v>
-      </c>
-      <c r="C15">
         <v>0.007170967708713505</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41578</v>
       </c>
       <c r="B16">
-        <v>0.09148594899999996</v>
-      </c>
-      <c r="C16">
         <v>0.001970975260022989</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41608</v>
       </c>
       <c r="B17">
-        <v>0.09718025000000008</v>
-      </c>
-      <c r="C17">
         <v>0.005217017227951537</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41639</v>
       </c>
       <c r="B18">
-        <v>0.1100932240000001</v>
-      </c>
-      <c r="C18">
         <v>0.01176923664092566</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41670</v>
       </c>
       <c r="B19">
-        <v>0.111226053</v>
-      </c>
-      <c r="C19">
         <v>0.001020480960975512</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41698</v>
       </c>
       <c r="B20">
-        <v>0.131189622</v>
-      </c>
-      <c r="C20">
         <v>0.01796535362548779</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41729</v>
       </c>
       <c r="B21">
-        <v>0.1347301570000001</v>
-      </c>
-      <c r="C21">
         <v>0.003129921748875608</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41759</v>
       </c>
       <c r="B22">
-        <v>0.145361563</v>
-      </c>
-      <c r="C22">
         <v>0.009369105010928136</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41790</v>
       </c>
       <c r="B23">
-        <v>0.1542757450000001</v>
-      </c>
-      <c r="C23">
         <v>0.007782854155373942</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41820</v>
       </c>
       <c r="B24">
-        <v>0.166059637</v>
-      </c>
-      <c r="C24">
         <v>0.01020890549857301</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41851</v>
       </c>
       <c r="B25">
-        <v>0.1746258549999999</v>
-      </c>
-      <c r="C25">
         <v>0.007346294930539621</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41882</v>
       </c>
       <c r="B26">
-        <v>0.1883635429999999</v>
-      </c>
-      <c r="C26">
         <v>0.01169537341743587</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41912</v>
       </c>
       <c r="B27">
-        <v>0.1767642279999999</v>
-      </c>
-      <c r="C27">
         <v>-0.009760746253387853</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41943</v>
       </c>
       <c r="B28">
-        <v>0.1841024490000001</v>
-      </c>
-      <c r="C28">
         <v>0.006235931400185413</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41973</v>
       </c>
       <c r="B29">
-        <v>0.1933800030000001</v>
-      </c>
-      <c r="C29">
         <v>0.007835094005451237</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42004</v>
       </c>
       <c r="B30">
-        <v>0.193509444</v>
-      </c>
-      <c r="C30">
         <v>0.0001084658697769747</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42035</v>
       </c>
       <c r="B31">
-        <v>0.210292283</v>
-      </c>
-      <c r="C31">
         <v>0.01406175634752671</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42063</v>
       </c>
       <c r="B32">
-        <v>0.2237484809999999</v>
-      </c>
-      <c r="C32">
         <v>0.01111813913796555</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42094</v>
       </c>
       <c r="B33">
-        <v>0.2365922229999999</v>
-      </c>
-      <c r="C33">
         <v>0.01049540996325038</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42124</v>
       </c>
       <c r="B34">
-        <v>0.2392704270000001</v>
-      </c>
-      <c r="C34">
         <v>0.002165793986236508</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42155</v>
       </c>
       <c r="B35">
-        <v>0.259043548</v>
-      </c>
-      <c r="C35">
         <v>0.01595545295780698</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42185</v>
       </c>
       <c r="B36">
-        <v>0.2695798310000002</v>
-      </c>
-      <c r="C36">
         <v>0.00836848178662053</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42216</v>
       </c>
       <c r="B37">
-        <v>0.292622028</v>
-      </c>
-      <c r="C37">
         <v>0.01814946680576246</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42247</v>
       </c>
       <c r="B38">
-        <v>0.2850266959999999</v>
-      </c>
-      <c r="C38">
         <v>-0.00587591100528595</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42277</v>
       </c>
       <c r="B39">
-        <v>0.2940484509999999</v>
-      </c>
-      <c r="C39">
         <v>0.007020675156463874</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42308</v>
       </c>
       <c r="B40">
-        <v>0.327885872</v>
-      </c>
-      <c r="C40">
         <v>0.02614849619722626</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42338</v>
       </c>
       <c r="B41">
-        <v>0.33451794</v>
-      </c>
-      <c r="C41">
         <v>0.004994456330807306</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42369</v>
       </c>
       <c r="B42">
-        <v>0.3607504610000001</v>
-      </c>
-      <c r="C42">
         <v>0.01965692645540607</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42400</v>
       </c>
       <c r="B43">
-        <v>0.397649192</v>
-      </c>
-      <c r="C43">
         <v>0.02711645673291452</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42429</v>
       </c>
       <c r="B44">
-        <v>0.4155391829999999</v>
-      </c>
-      <c r="C44">
         <v>0.01280005819943963</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42460</v>
       </c>
       <c r="B45">
-        <v>0.4240645459999999</v>
-      </c>
-      <c r="C45">
         <v>0.006022696582606679</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42490</v>
       </c>
       <c r="B46">
-        <v>0.457481177</v>
-      </c>
-      <c r="C46">
         <v>0.0234656716185111</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42521</v>
       </c>
       <c r="B47">
-        <v>0.4647686709999999</v>
-      </c>
-      <c r="C47">
         <v>0.005000060457041489</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42551</v>
       </c>
       <c r="B48">
-        <v>0.480088793</v>
-      </c>
-      <c r="C48">
         <v>0.0104590726872531</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42582</v>
       </c>
       <c r="B49">
-        <v>0.4975119059999999</v>
-      </c>
-      <c r="C49">
         <v>0.01177166740428115</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42613</v>
       </c>
       <c r="B50">
-        <v>0.5140532339999999</v>
-      </c>
-      <c r="C50">
         <v>0.01104587411540758</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42643</v>
       </c>
       <c r="B51">
-        <v>0.5331236279999998</v>
-      </c>
-      <c r="C51">
         <v>0.01259559014950717</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42674</v>
       </c>
       <c r="B52">
-        <v>0.5419904020000001</v>
-      </c>
-      <c r="C52">
         <v>0.005783469668109831</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42704</v>
       </c>
       <c r="B53">
-        <v>0.5495577159999998</v>
-      </c>
-      <c r="C53">
         <v>0.004907497472218081</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42735</v>
       </c>
       <c r="B54">
-        <v>0.5727536069999999</v>
-      </c>
-      <c r="C54">
         <v>0.01496936239321078</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42766</v>
       </c>
       <c r="B55">
-        <v>0.5972143480000001</v>
-      </c>
-      <c r="C55">
         <v>0.01555281189064228</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42794</v>
       </c>
       <c r="B56">
-        <v>0.6286424529999999</v>
-      </c>
-      <c r="C56">
         <v>0.01967682361440937</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42825</v>
       </c>
       <c r="B57">
-        <v>0.653112581</v>
-      </c>
-      <c r="C57">
         <v>0.015024861936348</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42855</v>
       </c>
       <c r="B58">
-        <v>0.6614938050000001</v>
-      </c>
-      <c r="C58">
         <v>0.005069965649242114</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42886</v>
       </c>
       <c r="B59">
-        <v>0.6556933409999999</v>
-      </c>
-      <c r="C59">
         <v>-0.003491113829341197</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42916</v>
       </c>
       <c r="B60">
-        <v>0.662387783</v>
-      </c>
-      <c r="C60">
         <v>0.004043286177594307</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42947</v>
       </c>
       <c r="B61">
-        <v>0.7070320000000001</v>
-      </c>
-      <c r="C61">
         <v>0.02685547707733615</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42978</v>
       </c>
       <c r="B62">
-        <v>0.7281846429999999</v>
-      </c>
-      <c r="C62">
         <v>0.01239147420786479</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43008</v>
       </c>
       <c r="B63">
-        <v>0.746467148</v>
-      </c>
-      <c r="C63">
         <v>0.0105790229499223</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43039</v>
       </c>
       <c r="B64">
-        <v>0.7488024999999998</v>
-      </c>
-      <c r="C64">
         <v>0.00133718633223312</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43069</v>
       </c>
       <c r="B65">
-        <v>0.7470203520000001</v>
-      </c>
-      <c r="C65">
         <v>-0.001019067619127845</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43100</v>
       </c>
       <c r="B66">
-        <v>0.7606045219999999</v>
-      </c>
-      <c r="C66">
         <v>0.007775622066708454</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43131</v>
       </c>
       <c r="B67">
-        <v>0.78201725</v>
-      </c>
-      <c r="C67">
         <v>0.01216214529295634</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43159</v>
       </c>
       <c r="B68">
-        <v>0.7934734889999999</v>
-      </c>
-      <c r="C68">
         <v>0.006428803649347392</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43190</v>
       </c>
       <c r="B69">
-        <v>0.8273017890000001</v>
-      </c>
-      <c r="C69">
         <v>0.01886189018543116</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43220</v>
       </c>
       <c r="B70">
-        <v>0.835127755</v>
-      </c>
-      <c r="C70">
         <v>0.004282798849708724</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43251</v>
       </c>
       <c r="B71">
-        <v>0.802965978</v>
-      </c>
-      <c r="C71">
         <v>-0.01752563379436223</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43281</v>
       </c>
       <c r="B72">
-        <v>0.809836515</v>
-      </c>
-      <c r="C72">
         <v>0.003810685883058884</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43312</v>
       </c>
       <c r="B73">
-        <v>0.8223874599999998</v>
-      </c>
-      <c r="C73">
         <v>0.006934850134792336</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43343</v>
       </c>
       <c r="B74">
-        <v>0.8225590690000002</v>
-      </c>
-      <c r="C74">
         <v>9.416713172538671e-05</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43373</v>
       </c>
       <c r="B75">
-        <v>0.829865141</v>
-      </c>
-      <c r="C75">
         <v>0.004008688730186671</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43404</v>
       </c>
       <c r="B76">
-        <v>0.878171381</v>
-      </c>
-      <c r="C76">
         <v>0.02639879787731303</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43434</v>
       </c>
       <c r="B77">
-        <v>0.8778159800000001</v>
-      </c>
-      <c r="C77">
         <v>-0.0001892271406088719</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43465</v>
       </c>
       <c r="B78">
-        <v>0.89799088</v>
-      </c>
-      <c r="C78">
         <v>0.01074381100963895</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43496</v>
       </c>
       <c r="B79">
-        <v>0.9267416750000002</v>
-      </c>
-      <c r="C79">
         <v>0.0151480153582193</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43524</v>
       </c>
       <c r="B80">
-        <v>0.936232975</v>
-      </c>
-      <c r="C80">
         <v>0.004926088496009617</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43555</v>
       </c>
       <c r="B81">
-        <v>0.9490676659999999</v>
-      </c>
-      <c r="C81">
         <v>0.006628691467254866</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43585</v>
       </c>
       <c r="B82">
-        <v>0.9718993230000001</v>
-      </c>
-      <c r="C82">
         <v>0.01171414281724603</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43616</v>
       </c>
       <c r="B83">
-        <v>1.003806851</v>
-      </c>
-      <c r="C83">
         <v>0.01618111413084522</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43646</v>
       </c>
       <c r="B84">
-        <v>1.043858763</v>
-      </c>
-      <c r="C84">
         <v>0.01998791050145998</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43677</v>
       </c>
       <c r="B85">
-        <v>1.063179218</v>
-      </c>
-      <c r="C85">
         <v>0.009452930579039176</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43708</v>
       </c>
       <c r="B86">
-        <v>1.062468211</v>
-      </c>
-      <c r="C86">
         <v>-0.0003446171780895346</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43738</v>
       </c>
       <c r="B87">
-        <v>1.090939944</v>
-      </c>
-      <c r="C87">
         <v>0.01380468937564627</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43769</v>
       </c>
       <c r="B88">
-        <v>1.12954274</v>
-      </c>
-      <c r="C88">
         <v>0.018461934361516</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43799</v>
       </c>
       <c r="B89">
-        <v>1.111911008</v>
-      </c>
-      <c r="C89">
         <v>-0.008279585879548912</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43830</v>
       </c>
       <c r="B90">
-        <v>1.134619084</v>
-      </c>
-      <c r="C90">
         <v>0.01075238299056225</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43861</v>
       </c>
       <c r="B91">
-        <v>1.150304743</v>
-      </c>
-      <c r="C91">
         <v>0.007348223913845597</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43890</v>
       </c>
       <c r="B92">
-        <v>1.164596127</v>
-      </c>
-      <c r="C92">
         <v>0.006646213308380444</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43921</v>
       </c>
       <c r="B93">
-        <v>1.144759827</v>
-      </c>
-      <c r="C93">
         <v>-0.009163972785764862</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43951</v>
       </c>
       <c r="B94">
-        <v>1.147391074</v>
-      </c>
-      <c r="C94">
         <v>0.001226825944273813</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43982</v>
       </c>
       <c r="B95">
-        <v>1.181898226</v>
-      </c>
-      <c r="C95">
         <v>0.01606933754070372</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44012</v>
       </c>
       <c r="B96">
-        <v>1.209039224</v>
-      </c>
-      <c r="C96">
         <v>0.01243916772862352</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44043</v>
       </c>
       <c r="B97">
-        <v>1.228404747</v>
-      </c>
-      <c r="C97">
         <v>0.00876649123727824</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>44074</v>
       </c>
       <c r="B98">
-        <v>1.245909268</v>
-      </c>
-      <c r="C98">
         <v>0.007855180269008999</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44104</v>
       </c>
       <c r="B99">
-        <v>1.243883001</v>
-      </c>
-      <c r="C99">
         <v>-0.0009022034099376297</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44135</v>
       </c>
       <c r="B100">
-        <v>1.255790374</v>
-      </c>
-      <c r="C100">
         <v>0.005306592631921347</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44165</v>
       </c>
       <c r="B101">
-        <v>1.261149738</v>
-      </c>
-      <c r="C101">
-        <v>0.002375825370021678</v>
+        <v>0.002989237864351235</v>
       </c>
     </row>
   </sheetData>
